--- a/SpreadsheetLightDataGridViewExport/Customers.xlsx
+++ b/SpreadsheetLightDataGridViewExport/Customers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -1830,8 +1830,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd//yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1875,9 +1876,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2182,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,32 +2200,32 @@
     <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2253,7 +2254,7 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>43408.0625</v>
       </c>
     </row>
@@ -2282,7 +2283,7 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2311,7 +2312,7 @@
       <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2340,7 +2341,7 @@
       <c r="H5" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2369,7 +2370,7 @@
       <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2398,7 +2399,7 @@
       <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2427,7 +2428,7 @@
       <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2456,7 +2457,7 @@
       <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2485,7 +2486,7 @@
       <c r="H10" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2514,7 +2515,7 @@
       <c r="H11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2543,7 +2544,7 @@
       <c r="H12" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2572,7 +2573,7 @@
       <c r="H13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>43285.541666666701</v>
       </c>
     </row>
@@ -2601,7 +2602,7 @@
       <c r="H14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2630,7 +2631,7 @@
       <c r="H15" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2659,7 +2660,7 @@
       <c r="H16" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2688,7 +2689,7 @@
       <c r="H17" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2717,7 +2718,7 @@
       <c r="H18" t="s">
         <v>118</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2746,7 +2747,7 @@
       <c r="H19" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2775,7 +2776,7 @@
       <c r="H20" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2804,7 +2805,7 @@
       <c r="H21" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2833,7 +2834,7 @@
       <c r="H22" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -2862,7 +2863,7 @@
       <c r="H23" t="s">
         <v>149</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -2891,7 +2892,7 @@
       <c r="H24" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -2920,7 +2921,7 @@
       <c r="H25" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -2949,7 +2950,7 @@
       <c r="H26" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -2978,7 +2979,7 @@
       <c r="H27" t="s">
         <v>174</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -3007,7 +3008,7 @@
       <c r="H28" t="s">
         <v>180</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       <c r="H29" t="s">
         <v>186</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -3065,7 +3066,7 @@
       <c r="H30" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="4">
         <v>42890.208333333299</v>
       </c>
     </row>
@@ -3094,7 +3095,7 @@
       <c r="H31" t="s">
         <v>200</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3123,7 +3124,7 @@
       <c r="H32" t="s">
         <v>205</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3152,7 +3153,7 @@
       <c r="H33" t="s">
         <v>209</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3181,7 +3182,7 @@
       <c r="H34" t="s">
         <v>215</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3210,7 +3211,7 @@
       <c r="H35" t="s">
         <v>221</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3239,7 +3240,7 @@
       <c r="H36" t="s">
         <v>226</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3268,7 +3269,7 @@
       <c r="H37" t="s">
         <v>232</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3297,7 +3298,7 @@
       <c r="H38" t="s">
         <v>237</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="4">
         <v>43316.666666666701</v>
       </c>
     </row>
@@ -3326,7 +3327,7 @@
       <c r="H39" t="s">
         <v>243</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3355,7 +3356,7 @@
       <c r="H40" t="s">
         <v>247</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3384,7 +3385,7 @@
       <c r="H41" t="s">
         <v>253</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3413,7 +3414,7 @@
       <c r="H42" t="s">
         <v>260</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3442,7 +3443,7 @@
       <c r="H43" t="s">
         <v>265</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3471,7 +3472,7 @@
       <c r="H44" t="s">
         <v>272</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3500,7 +3501,7 @@
       <c r="H45" t="s">
         <v>277</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3529,7 +3530,7 @@
       <c r="H46" t="s">
         <v>284</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="4">
         <v>43111.171527777798</v>
       </c>
     </row>
@@ -3558,7 +3559,7 @@
       <c r="H47" t="s">
         <v>289</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="4">
         <v>43354.382638888899</v>
       </c>
     </row>
@@ -3587,7 +3588,7 @@
       <c r="H48" t="s">
         <v>296</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="4">
         <v>43354.382638888899</v>
       </c>
     </row>
@@ -3616,7 +3617,7 @@
       <c r="H49" t="s">
         <v>302</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="4">
         <v>43354.382638888899</v>
       </c>
     </row>
@@ -3645,7 +3646,7 @@
       <c r="H50" t="s">
         <v>306</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="4">
         <v>43354.382638888899</v>
       </c>
     </row>
@@ -3674,7 +3675,7 @@
       <c r="H51" t="s">
         <v>312</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <v>43354.382638888899</v>
       </c>
     </row>
@@ -3703,7 +3704,7 @@
       <c r="H52" t="s">
         <v>318</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="4">
         <v>43354.382638888899</v>
       </c>
     </row>
@@ -3732,7 +3733,7 @@
       <c r="H53" t="s">
         <v>324</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="4">
         <v>43354.382638888899</v>
       </c>
     </row>
@@ -3761,7 +3762,7 @@
       <c r="H54" t="s">
         <v>330</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="4">
         <v>42777.288194444402</v>
       </c>
     </row>
@@ -3790,7 +3791,7 @@
       <c r="H55" t="s">
         <v>337</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="4">
         <v>42777.288194444402</v>
       </c>
     </row>
@@ -3819,7 +3820,7 @@
       <c r="H56" t="s">
         <v>344</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="4">
         <v>42777.288194444402</v>
       </c>
     </row>
@@ -3848,7 +3849,7 @@
       <c r="H57" t="s">
         <v>351</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="4">
         <v>42777.288194444402</v>
       </c>
     </row>
@@ -3877,7 +3878,7 @@
       <c r="H58" t="s">
         <v>357</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       <c r="H59" t="s">
         <v>363</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -3935,7 +3936,7 @@
       <c r="H60" t="s">
         <v>369</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -3961,7 +3962,7 @@
       <c r="H61" t="s">
         <v>375</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -3990,7 +3991,7 @@
       <c r="H62" t="s">
         <v>382</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -4019,7 +4020,7 @@
       <c r="H63" t="s">
         <v>388</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -4048,7 +4049,7 @@
       <c r="H64" t="s">
         <v>394</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -4077,7 +4078,7 @@
       <c r="H65" t="s">
         <v>400</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -4106,7 +4107,7 @@
       <c r="H66" t="s">
         <v>406</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -4135,7 +4136,7 @@
       <c r="H67" t="s">
         <v>413</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="4">
         <v>42403.399305555598</v>
       </c>
     </row>
@@ -4164,7 +4165,7 @@
       <c r="H68" t="s">
         <v>419</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4193,7 +4194,7 @@
       <c r="H69" t="s">
         <v>425</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4222,7 +4223,7 @@
       <c r="H70" t="s">
         <v>431</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4251,7 +4252,7 @@
       <c r="H71" t="s">
         <v>437</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4280,7 +4281,7 @@
       <c r="H72" t="s">
         <v>442</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4309,7 +4310,7 @@
       <c r="H73" t="s">
         <v>448</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4338,7 +4339,7 @@
       <c r="H74" t="s">
         <v>454</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4367,7 +4368,7 @@
       <c r="H75" t="s">
         <v>459</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4396,7 +4397,7 @@
       <c r="H76" t="s">
         <v>464</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="4">
         <v>43284.181944444397</v>
       </c>
     </row>
@@ -4425,7 +4426,7 @@
       <c r="H77" t="s">
         <v>470</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4454,7 +4455,7 @@
       <c r="H78" t="s">
         <v>475</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4483,7 +4484,7 @@
       <c r="H79" t="s">
         <v>481</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4512,7 +4513,7 @@
       <c r="H80" t="s">
         <v>487</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4541,7 +4542,7 @@
       <c r="H81" t="s">
         <v>492</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4570,7 +4571,7 @@
       <c r="H82" t="s">
         <v>498</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4599,7 +4600,7 @@
       <c r="H83" t="s">
         <v>504</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4628,7 +4629,7 @@
       <c r="H84" t="s">
         <v>510</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4657,7 +4658,7 @@
       <c r="H85" t="s">
         <v>516</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       <c r="H86" t="s">
         <v>522</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4715,7 +4716,7 @@
       <c r="H87" t="s">
         <v>528</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="4">
         <v>43134.041666666701</v>
       </c>
     </row>
@@ -4744,7 +4745,7 @@
       <c r="H88" t="s">
         <v>534</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="4">
         <v>43140.709487478904</v>
       </c>
     </row>
@@ -4773,7 +4774,7 @@
       <c r="H89" t="s">
         <v>540</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="4">
         <v>43148.552962574897</v>
       </c>
     </row>
@@ -4802,7 +4803,7 @@
       <c r="H90" t="s">
         <v>546</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="4">
         <v>43141.181571152003</v>
       </c>
     </row>
@@ -4831,7 +4832,7 @@
       <c r="H91" t="s">
         <v>552</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="4">
         <v>43138.561447808097</v>
       </c>
     </row>
@@ -4860,7 +4861,7 @@
       <c r="H92" t="s">
         <v>558</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="4">
         <v>43139.430360461003</v>
       </c>
     </row>
@@ -4889,7 +4890,7 @@
       <c r="H93" t="s">
         <v>564</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="4">
         <v>43136.488658887203</v>
       </c>
     </row>
@@ -4918,7 +4919,7 @@
       <c r="H94" t="s">
         <v>570</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="4">
         <v>43141.462714720597</v>
       </c>
     </row>
@@ -4947,7 +4948,7 @@
       <c r="H95" t="s">
         <v>576</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="4">
         <v>43137.899503480599</v>
       </c>
     </row>
@@ -4976,7 +4977,7 @@
       <c r="H96" t="s">
         <v>582</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="4">
         <v>43138.153418588401</v>
       </c>
     </row>
@@ -5005,7 +5006,7 @@
       <c r="H97" t="s">
         <v>588</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="4">
         <v>43141.870704246801</v>
       </c>
     </row>
@@ -5034,7 +5035,7 @@
       <c r="H98" t="s">
         <v>594</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="4">
         <v>43183.363464965303</v>
       </c>
     </row>
@@ -5063,12 +5064,13 @@
       <c r="H99" t="s">
         <v>600</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="4">
         <v>43183.381826967598</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5088,7 +5090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5100,13 +5102,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
